--- a/test_speeches/predictions/Speech_6_AI.xlsx
+++ b/test_speeches/predictions/Speech_6_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,140 +436,147 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hi, I'm Stefan and I'm here to explain to you the meaning of your next tasks.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06</v>
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>You are here today to participate in a study and earn some money.</t>
+          <t>Hi, I'm Stefan and I'm here to explain to you the meaning of your next tasks.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For this you have just practiced all the matrix tasks.</t>
+          <t>You are here today to participate in a study and earn some money.</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -581,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -593,57 +600,63 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>In addition, you can support the food bank today, which aims to help people in need and at the same time prevent large amounts of food from being thrown away.</t>
+          <t>For this you have just practiced all the matrix tasks.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>It does this by using the food bank trucks to collect leftover food from the food industry and then making this food available to people in need in exchange for a small fee.</t>
+          <t>In addition, you can support the food bank today, which aims to help people in need and at the same time prevent large amounts of food from being thrown away.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -652,223 +665,241 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Although the matrices seem to have nothing to do with the food bank, the correct completion of the next tasks will benefit the food bank.</t>
+          <t>It does this by using the food bank trucks to collect leftover food from the food industry and then making this food available to people in need in exchange for a small fee.</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The prepatory work of the research team makes it possible that for each correctly solved matrix of all study participants, 20 cents will be donated to the food bank.</t>
+          <t>Although the matrices seem to have nothing to do with the food bank, the correct completion of the next tasks will benefit the food bank.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03</v>
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Your individual performance and success will thus influence the amount of money that will be donated to the food bank at the end of this study.</t>
+          <t>The prepatory work of the research team makes it possible that for each correctly solved matrix of all study participants, 20 cents will be donated to the food bank.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>It would therefore be good if you make an effort so that your donation will not be too small.</t>
+          <t>Your individual performance and success will thus influence the amount of money that will be donated to the food bank at the end of this study.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Because through your work you can support the goals of the food bank, thus helping the needy people by preventing the mass disposal of food.</t>
+          <t>It would therefore be good if you make an effort so that your donation will not be too small.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>These issues should be addressed because in affluent Europe there is an immense overproduction of food that is eventually thrown away.</t>
+          <t>Because through your work you can support the goals of the food bank, thus helping the needy people by preventing the mass disposal of food.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -877,35 +908,38 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The food sometimes can no longer be included in the assortment due to defects or its best-before date has expired.</t>
+          <t>These issues should be addressed because in affluent Europe there is an immense overproduction of food that is eventually thrown away.</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -914,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -926,53 +960,59 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Then they have to be disposed of properly, even though they would actually still be edible.</t>
+          <t>The food sometimes can no longer be included in the assortment due to defects or its best-before date has expired.</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Moreover, this overproduction is one of the causes of climate change.</t>
+          <t>Then they have to be disposed of properly, even though they would actually still be edible.</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -988,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1000,23 +1040,26 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Although we live in a prosperous society, there are people here who live in poverty.</t>
+          <t>Moreover, this overproduction is one of the causes of climate change.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1025,35 +1068,38 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Even a normal purchase puts a strain on their financial budget.</t>
+          <t>Although we live in a prosperous society, there are people here who live in poverty.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1062,35 +1108,38 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Since prices in Europe are often high, needy people often do not have enough money to buy everyday things or to provide something for their own children.</t>
+          <t>Even a normal purchase puts a strain on their financial budget.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1099,35 +1148,38 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The food bank supports and provides for these needy people.</t>
+          <t>Since prices in Europe are often high, needy people often do not have enough money to buy everyday things or to provide something for their own children.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1136,35 +1188,38 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I was on site and took a look at what the food bank's work looks like.</t>
+          <t>The food bank supports and provides for these needy people.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1173,35 +1228,38 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.12</v>
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Many volunteers spend their free time, which they would otherwise spend on personal shopping trips, at the food bank.</t>
+          <t>I was on site and took a look at what the food bank's work looks like.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1210,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1222,23 +1280,26 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>As a rule, they regularly support the food bank on site every week.</t>
+          <t>Many volunteers spend their free time, which they would otherwise spend on personal shopping trips, at the food bank.</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1247,35 +1308,38 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>People with limited financial resources often need particularly inexpensive items.</t>
+          <t>As a rule, they regularly support the food bank on site every week.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1284,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1296,60 +1360,66 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>That's why the food bank distributes food for everyday needs to needy people in exchange for a small fee, who can then be happy about a yogurt dressing, for example.</t>
+          <t>People with limited financial resources often need particularly inexpensive items.</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Some of the grantees seem to feel the need to sometimes give selected food bank employees small amounts of money on holidays, according to their limited budget.</t>
+          <t>That's why the food bank distributes food for everyday needs to needy people in exchange for a small fee, who can then be happy about a yogurt dressing, for example.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1358,35 +1428,38 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03</v>
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Accepting such gifts is sometimes a little uncomfortable for the employees, since the food bank clients are in a precarious situation and depend on everyday food and the little money themselves.</t>
+          <t>Some of the grantees seem to feel the need to sometimes give selected food bank employees small amounts of money on holidays, according to their limited budget.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1395,72 +1468,78 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>But sometimes these gifts can also be useful.</t>
+          <t>Accepting such gifts is sometimes a little uncomfortable for the employees, since the food bank clients are in a precarious situation and depend on everyday food and the little money themselves.</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The employees are happy about the small presents they receive.</t>
+          <t>But sometimes these gifts can also be useful.</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1469,47 +1548,50 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>This is especially the case when they can offer added value to other food bank customers at the same time.</t>
+          <t>The employees are happy about the small presents they receive.</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1518,23 +1600,26 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>It can also happen that employees pass on some gifts to other customers in order to give them a special delight.</t>
+          <t>This is especially the case when they can offer added value to other food bank customers at the same time.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1543,220 +1628,238 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>In some cases, even minimal amounts of money can help to support people out of individual emergency situations.</t>
+          <t>It can also happen that employees pass on some gifts to other customers in order to give them a special delight.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>To summarize the whole thing once again: For each correctly solved matrix, 20 cents will be donated to the food bank and thus indirectly made available to those in need.</t>
+          <t>In some cases, even minimal amounts of money can help to support people out of individual emergency situations.</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Thus, every matrix solved can have an influence on the sum of donations and help those in need.</t>
+          <t>To summarize the whole thing once again: For each correctly solved matrix, 20 cents will be donated to the food bank and thus indirectly made available to those in need.</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>This study is conducted online and several hundred people participate and all participants work on the same important topic.</t>
+          <t>Thus, every matrix solved can have an influence on the sum of donations and help those in need.</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>All of you support the goal of the food bank, which is to help people in need and to counteract food waste.</t>
+          <t>This study is conducted online and several hundred people participate and all participants work on the same important topic.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>You should ideally solve many matrices.</t>
+          <t>All of you support the goal of the food bank, which is to help people in need and to counteract food waste.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1765,35 +1868,38 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The more tasks that are correct, the higher the amount of money that can be donated to the food bank.</t>
+          <t>You should ideally solve many matrices.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1802,130 +1908,182 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>This amount can then be used to help people in need by redistributing leftover food, which at the same time can counteract food waste.</t>
+          <t>The more tasks that are correct, the higher the amount of money that can be donated to the food bank.</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>So it would be good if you make an effort!</t>
+          <t>This amount can then be used to help people in need by redistributing leftover food, which at the same time can counteract food waste.</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>So it would be good if you make an effort!</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>I wish you much success!</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test_speeches/predictions/Speech_6_AI.xlsx
+++ b/test_speeches/predictions/Speech_6_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
